--- a/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_N2O.xlsx
+++ b/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_N2O.xlsx
@@ -377,12 +377,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_N2O_flux_mgm2h</t>
+          <t>avg_Gasera_NN2O_flux_mgm2h</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_N2O_flux_mgm2h_cor</t>
+          <t>avg_Gasera_NN2O_flux_mgm2h_cor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2247532268566033</v>
+        <v>-0.04550788477675025</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.9940751079900513</v>
+        <v>-0.2012796706260847</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.003088193009693643</v>
+        <v>-0.0006252952788222648</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3813116537725929</v>
+        <v>0.07720773154899609</v>
       </c>
       <c r="D5">
-        <v>0.3951494423092661</v>
+        <v>0.08000959782295058</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.6827025497538628</v>
+        <v>0.1382331609005755</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.2187821234198164</v>
+        <v>0.04429885970070662</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.04512920660998393</v>
+        <v>0.009137731916897571</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.2778423466058035</v>
+        <v>-0.05625733464332385</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.02356063367146374</v>
+        <v>0.004770541528519517</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.09751882898058378</v>
+        <v>0.01974554801672977</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.08059933407065611</v>
+        <v>0.01631969987381054</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.03037016942473883</v>
+        <v>-0.006149331825670259</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.2312572351908412</v>
+        <v>0.04682481208409594</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.09760888623385483</v>
+        <v>-0.01976378274983011</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.02677263127477454</v>
+        <v>0.005420904679603111</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.08131077780141106</v>
+        <v>0.01646375253003778</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.04994867632298437</v>
+        <v>0.01011357495795964</v>
       </c>
       <c r="D18">
         <v>0</v>
